--- a/2020/cursos/informatica/Undecimo grado/Listados Informatica 11-3.xlsx
+++ b/2020/cursos/informatica/Undecimo grado/Listados Informatica 11-3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\informatica\Undecimo grado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB78C7E5-962C-4B8C-8F57-14F2A086A8D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECAADA6-AC8B-4696-9B06-FCCB54590C3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="14400" windowHeight="13710" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
+    <workbookView xWindow="2205" yWindow="390" windowWidth="16440" windowHeight="13710" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
   <sheets>
     <sheet name="Asistencia" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="38">
   <si>
     <t>Codigo</t>
   </si>
@@ -548,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
-  <dimension ref="A3:D37"/>
+  <dimension ref="A3:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,9 +560,10 @@
     <col min="2" max="2" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -575,8 +576,11 @@
       <c r="D3" s="7">
         <v>43984</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="7">
+        <v>43998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3545</v>
       </c>
@@ -589,8 +593,11 @@
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>725</v>
       </c>
@@ -603,8 +610,11 @@
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1455</v>
       </c>
@@ -617,8 +627,11 @@
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>3280</v>
       </c>
@@ -631,8 +644,9 @@
       <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1466</v>
       </c>
@@ -645,8 +659,11 @@
       <c r="D8" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>912</v>
       </c>
@@ -656,8 +673,9 @@
       <c r="C9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>3911</v>
       </c>
@@ -670,8 +688,11 @@
       <c r="D10" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>806</v>
       </c>
@@ -684,8 +705,11 @@
       <c r="D11" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>730</v>
       </c>
@@ -698,8 +722,11 @@
       <c r="D12" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>847</v>
       </c>
@@ -712,8 +739,11 @@
       <c r="D13" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>4303</v>
       </c>
@@ -726,8 +756,11 @@
       <c r="D14" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>774</v>
       </c>
@@ -740,8 +773,11 @@
       <c r="D15" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>3546</v>
       </c>
@@ -754,8 +790,11 @@
       <c r="D16" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2647</v>
       </c>
@@ -768,8 +807,11 @@
       <c r="D17" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2018</v>
       </c>
@@ -779,8 +821,11 @@
       <c r="C18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>4354</v>
       </c>
@@ -793,8 +838,11 @@
       <c r="D19" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>820</v>
       </c>
@@ -807,8 +855,11 @@
       <c r="D20" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>992</v>
       </c>
@@ -821,8 +872,11 @@
       <c r="D21" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>1460</v>
       </c>
@@ -832,8 +886,11 @@
       <c r="C22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>780</v>
       </c>
@@ -846,8 +903,11 @@
       <c r="D23" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1181</v>
       </c>
@@ -860,8 +920,11 @@
       <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>825</v>
       </c>
@@ -874,8 +937,11 @@
       <c r="D25" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>3263</v>
       </c>
@@ -888,8 +954,9 @@
       <c r="D26" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>3260</v>
       </c>
@@ -902,8 +969,9 @@
       <c r="D27" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>784</v>
       </c>
@@ -916,8 +984,11 @@
       <c r="D28" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>934</v>
       </c>
@@ -930,8 +1001,11 @@
       <c r="D29" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>787</v>
       </c>
@@ -944,8 +1018,9 @@
       <c r="D30" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>3185</v>
       </c>
@@ -958,8 +1033,11 @@
       <c r="D31" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>3383</v>
       </c>
@@ -972,8 +1050,11 @@
       <c r="D32" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>832</v>
       </c>
@@ -986,8 +1067,11 @@
       <c r="D33" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>796</v>
       </c>
@@ -997,8 +1081,11 @@
       <c r="C34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>3608</v>
       </c>
@@ -1008,8 +1095,9 @@
       <c r="C35" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>1450</v>
       </c>
@@ -1022,8 +1110,11 @@
       <c r="D36" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E36" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
@@ -1032,6 +1123,10 @@
       <c r="D37" s="8">
         <f>COUNTA(D4:D36)</f>
         <v>28</v>
+      </c>
+      <c r="E37" s="8">
+        <f>COUNTA(E4:E36)</f>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/2020/cursos/informatica/Undecimo grado/Listados Informatica 11-3.xlsx
+++ b/2020/cursos/informatica/Undecimo grado/Listados Informatica 11-3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\informatica\Undecimo grado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECAADA6-AC8B-4696-9B06-FCCB54590C3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9A2901-C6FF-42AA-93F5-0BBC828729CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="390" windowWidth="16440" windowHeight="13710" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
   <sheets>
     <sheet name="Asistencia" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="38">
   <si>
     <t>Codigo</t>
   </si>
@@ -548,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
-  <dimension ref="A3:E37"/>
+  <dimension ref="A3:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,10 +560,10 @@
     <col min="2" max="2" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -579,8 +579,11 @@
       <c r="E3" s="7">
         <v>43998</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="7">
+        <v>44026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3545</v>
       </c>
@@ -596,8 +599,11 @@
       <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>725</v>
       </c>
@@ -613,8 +619,11 @@
       <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1455</v>
       </c>
@@ -630,8 +639,11 @@
       <c r="E6" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>3280</v>
       </c>
@@ -645,8 +657,11 @@
         <v>4</v>
       </c>
       <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1466</v>
       </c>
@@ -662,8 +677,9 @@
       <c r="E8" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>912</v>
       </c>
@@ -674,8 +690,11 @@
         <v>10</v>
       </c>
       <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>3911</v>
       </c>
@@ -691,8 +710,11 @@
       <c r="E10" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>806</v>
       </c>
@@ -708,8 +730,11 @@
       <c r="E11" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>730</v>
       </c>
@@ -725,8 +750,11 @@
       <c r="E12" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>847</v>
       </c>
@@ -742,8 +770,11 @@
       <c r="E13" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>4303</v>
       </c>
@@ -759,8 +790,11 @@
       <c r="E14" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>774</v>
       </c>
@@ -776,8 +810,11 @@
       <c r="E15" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>3546</v>
       </c>
@@ -793,8 +830,11 @@
       <c r="E16" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2647</v>
       </c>
@@ -810,8 +850,11 @@
       <c r="E17" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2018</v>
       </c>
@@ -824,8 +867,11 @@
       <c r="E18" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>4354</v>
       </c>
@@ -841,8 +887,11 @@
       <c r="E19" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>820</v>
       </c>
@@ -858,8 +907,11 @@
       <c r="E20" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>992</v>
       </c>
@@ -875,8 +927,11 @@
       <c r="E21" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>1460</v>
       </c>
@@ -889,8 +944,11 @@
       <c r="E22" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>780</v>
       </c>
@@ -906,8 +964,11 @@
       <c r="E23" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1181</v>
       </c>
@@ -923,8 +984,11 @@
       <c r="E24" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>825</v>
       </c>
@@ -940,8 +1004,11 @@
       <c r="E25" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>3263</v>
       </c>
@@ -955,8 +1022,9 @@
         <v>4</v>
       </c>
       <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>3260</v>
       </c>
@@ -970,8 +1038,9 @@
         <v>4</v>
       </c>
       <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>784</v>
       </c>
@@ -987,8 +1056,11 @@
       <c r="E28" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>934</v>
       </c>
@@ -1004,8 +1076,9 @@
       <c r="E29" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>787</v>
       </c>
@@ -1019,8 +1092,9 @@
         <v>4</v>
       </c>
       <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>3185</v>
       </c>
@@ -1036,8 +1110,11 @@
       <c r="E31" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>3383</v>
       </c>
@@ -1053,8 +1130,11 @@
       <c r="E32" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>832</v>
       </c>
@@ -1070,8 +1150,11 @@
       <c r="E33" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>796</v>
       </c>
@@ -1084,8 +1167,9 @@
       <c r="E34" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>3608</v>
       </c>
@@ -1096,8 +1180,9 @@
         <v>36</v>
       </c>
       <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>1450</v>
       </c>
@@ -1113,8 +1198,11 @@
       <c r="E36" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F36" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
@@ -1127,6 +1215,10 @@
       <c r="E37" s="8">
         <f>COUNTA(E4:E36)</f>
         <v>27</v>
+      </c>
+      <c r="F37" s="8">
+        <f>COUNTA(F4:F36)</f>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
